--- a/stim_list_master.xlsx
+++ b/stim_list_master.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\docs\code\seq_pert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\seq-pert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E580A7-8D4D-4842-BE6D-FA10DF592591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{FE13A1C7-B0D0-41D5-BF1C-60011AB1964C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>FSEFK</t>
   </si>
@@ -97,12 +96,27 @@
   </si>
   <si>
     <t>TWELV</t>
+  </si>
+  <si>
+    <t>famil</t>
+  </si>
+  <si>
+    <t>FLEKT</t>
+  </si>
+  <si>
+    <t>SPEND</t>
+  </si>
+  <si>
+    <t>PREST</t>
+  </si>
+  <si>
+    <t>STEPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,6 +220,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F510875-52E2-4CAC-96E8-CBFADDEA5ABB}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +546,7 @@
     <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -541,8 +556,11 @@
       <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -552,8 +570,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -563,8 +584,11 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -574,8 +598,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -585,8 +612,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -596,8 +626,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -607,8 +640,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -618,8 +654,11 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -629,8 +668,11 @@
       <c r="C9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -640,8 +682,11 @@
       <c r="C10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -651,8 +696,11 @@
       <c r="C11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -662,8 +710,11 @@
       <c r="C12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -673,8 +724,11 @@
       <c r="C13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>0</v>
       </c>
@@ -684,8 +738,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>0</v>
       </c>
@@ -695,8 +752,11 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -706,8 +766,11 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -717,8 +780,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>0</v>
       </c>
@@ -728,8 +794,11 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>0</v>
       </c>
@@ -737,6 +806,65 @@
         <v>20</v>
       </c>
       <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>0</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>0</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>0</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
     </row>
